--- a/Mitgliedervereine Adressen.xlsx
+++ b/Mitgliedervereine Adressen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hikar\Dropbox\Kraftdreikampfverband Schweiz\Vereine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE21E46E-51C8-4FFA-ACB2-C0A38F5DA85D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4C3C35-309A-4377-BD29-0FF881A2E53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="2625" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,22 +110,6 @@
     <t xml:space="preserve">Schwerathletik Beider Basel </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>Schwerathletik Beider Basel 
-Jurastr. 21 
-4053 Basel 
-Brucker Rooven 
-+41 76 379 08 51
-info@brucker-training.ch
-www.strengthlab.ch</t>
-    </r>
-  </si>
-  <si>
     <t>info@brucker-training.ch</t>
   </si>
   <si>
@@ -133,34 +117,6 @@
   </si>
   <si>
     <t>C.H. Châtelaine Section haltérophilie</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Centre Sportif du Lignon
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>C.H. Châtelaine
-Section haltérophilie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve">
-16 place du Lignon
-1219 le Lignon
-Allaman Sébastien 
-+41 77 404 90 54
-sebastien.allaman@gmail.com
-https://www.facebook.com/chc.haltero/</t>
-    </r>
   </si>
   <si>
     <t>sebastien.allaman@gmail.com</t>
@@ -221,21 +177,6 @@
     <t xml:space="preserve">Elemental Athletes </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t xml:space="preserve">Elemental Athletes 
-Bürgenstr 4 
-6005 Luzern 
-Thoma Tom 
-+41 79 393 5243 
-tt@elemental-training.ch 
-www.elemental-training.ch </t>
-    </r>
-  </si>
-  <si>
     <t>tt@elemental-training.ch</t>
   </si>
   <si>
@@ -243,21 +184,6 @@
   </si>
   <si>
     <t>Heroad Suisse</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>Heroad Suisse
-Grand rue 40
-Code postal
-2112 Môtiers
-Feuvrier Antoine 
-+41 77 457 1883
-antoinefeuvrier2@gmail.com</t>
-    </r>
   </si>
   <si>
     <t>antoinefeuvrier2@gmail.com</t>
@@ -286,22 +212,6 @@
     <t xml:space="preserve">Schwerathletik Nordwest </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>Schwerathletik Nordwest 
-Bühnenstrasse 2 
-4600 Olten 
-Kohler Julian 
-+41 76 431 49 52 
-sa.nordwest@gmail.com 
-www.schwerathletik-nordwest.ch</t>
-    </r>
-  </si>
-  <si>
     <t>sa.nordwest@gmail.com</t>
   </si>
   <si>
@@ -309,23 +219,6 @@
   </si>
   <si>
     <t xml:space="preserve">Powerlifting Ticino </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>Powerlifting Ticino 
-Via Alessandro Flemin 6
-6500 Bellinzona
-Canicattì Stefano 
-s.canicatti@hotmail.com
-+41 77 498 1348</t>
-    </r>
-  </si>
-  <si>
-    <t>s.canicatti@hotmail.com;    antonioli.brian@gmail.com</t>
   </si>
   <si>
     <t>VD</t>
@@ -349,22 +242,6 @@
   </si>
   <si>
     <t>Powerlifting Club Sierre</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>Powerlifting Club Sierre
-rue des Sablons 15
-3960 Sierre
-Cina Serge
-+41 78 616 1975
-cina@powerlifting.ch
-www.fit-sierre.ch</t>
-    </r>
   </si>
   <si>
     <t>cina@powerlifting.ch</t>
@@ -421,22 +298,6 @@
     <t xml:space="preserve">Kraftdreikampf Klub der Sportfreunde </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Century Gothic"/>
-      </rPr>
-      <t>Kraftdreikampf Klub der Sportfreunde 
-Hohlstrasse 506
-8048 Zürich 
-Mazzucco Stefano 
-+41 76 536 5574
-kraftdreikampf@klubdersportfreunde.ch
-www.klubdersportfreunde.ch/powerliftingverein</t>
-    </r>
-  </si>
-  <si>
     <t>kraftdreikampf@klubdersportfreunde.ch</t>
   </si>
   <si>
@@ -457,12 +318,154 @@
   <si>
     <t>outcaststrengthsystem@gmail.com</t>
   </si>
+  <si>
+    <t>ticino@powerlifting.ch , powerlifting.ticino@gmail.com</t>
+  </si>
+  <si>
+    <t>Powerlifting Ticino 
+Via Alessandro Flemin 6
+6500 Bellinzona
+www.plticino.com 
+Canicattì Stefano 
+s.canicatti@hotmail.com
++41 77 498 1348</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Schwerathletik Beider Basel 
+Jurastr. 21 
+4053 Basel 
+Brucker Rooven 
++41 76 379 08 51
+info@brucker-training.ch
+www.strengthlab.ch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Centre Sportif du Lignon
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>C.H. Châtelaine
+Section haltérophilie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+16 place du Lignon
+1219 le Lignon
+Allaman Sébastien 
++41 77 404 90 54
+sebastien.allaman@gmail.com
+https://www.facebook.com/chc.haltero/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Elemental Athletes 
+Bürgenstr 4 
+6005 Luzern 
+Thoma Tom 
++41 79 393 5243 
+tt@elemental-training.ch 
+www.elemental-training.ch </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Heroad Suisse
+Grand rue 40
+Code postal
+2112 Môtiers
+Feuvrier Antoine 
++41 77 457 1883
+antoinefeuvrier2@gmail.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Schwerathletik Nordwest 
+Bühnenstrasse 2 
+4600 Olten 
+Kohler Julian 
++41 76 431 49 52 
+sa.nordwest@gmail.com 
+www.schwerathletik-nordwest.ch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Powerlifting Club Sierre
+rue des Sablons 15
+3960 Sierre
+Cina Serge
++41 78 616 1975
+cina@powerlifting.ch
+www.fit-sierre.ch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>Kraftdreikampf Klub der Sportfreunde 
+Hohlstrasse 506
+8048 Zürich 
+Mazzucco Stefano 
++41 76 536 5574
+kraftdreikampf@klubdersportfreunde.ch
+www.klubdersportfreunde.ch/powerliftingverein</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,24 +498,40 @@
       <name val="Century Gothic"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Century Gothic"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Century Gothic"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -598,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -627,25 +646,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,61 +654,97 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -980,7 +1017,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1053,23 +1090,23 @@
       <c r="Z2" s="1"/>
     </row>
     <row r="3" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1091,21 +1128,21 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="18"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="7"/>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -1127,21 +1164,21 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="121.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1163,21 +1200,21 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="108" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -1199,21 +1236,21 @@
       <c r="Z6" s="9"/>
     </row>
     <row r="7" spans="1:26" ht="108" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1235,21 +1272,21 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="C8" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1271,21 +1308,21 @@
       <c r="Z8" s="9"/>
     </row>
     <row r="9" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>22</v>
+      <c r="A9" s="25" t="s">
+        <v>21</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1307,21 +1344,21 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="108" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="D10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="24"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1343,21 +1380,21 @@
       <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:26" ht="108" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="D11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="24"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1379,21 +1416,21 @@
       <c r="Z11" s="9"/>
     </row>
     <row r="12" spans="1:26" ht="108" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1415,21 +1452,21 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="108" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>41</v>
+      <c r="A13" s="27" t="s">
+        <v>38</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>42</v>
+      <c r="B13" s="28" t="s">
+        <v>39</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>43</v>
+      <c r="C13" s="32" t="s">
+        <v>79</v>
       </c>
-      <c r="D13" s="27" t="s">
-        <v>44</v>
+      <c r="D13" s="33" t="s">
+        <v>40</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1451,21 +1488,21 @@
       <c r="Z13" s="9"/>
     </row>
     <row r="14" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>45</v>
+      <c r="A14" s="25" t="s">
+        <v>41</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>46</v>
+      <c r="B14" s="34" t="s">
+        <v>42</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>47</v>
+      <c r="C14" s="35" t="s">
+        <v>43</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>48</v>
+      <c r="D14" s="25" t="s">
+        <v>44</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1487,21 +1524,21 @@
       <c r="Z14" s="9"/>
     </row>
     <row r="15" spans="1:26" ht="108" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
-        <v>49</v>
+      <c r="A15" s="27" t="s">
+        <v>45</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>50</v>
+      <c r="B15" s="28" t="s">
+        <v>46</v>
       </c>
-      <c r="C15" s="26" t="s">
-        <v>51</v>
+      <c r="C15" s="32" t="s">
+        <v>80</v>
       </c>
-      <c r="D15" s="27" t="s">
-        <v>52</v>
+      <c r="D15" s="33" t="s">
+        <v>47</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1522,22 +1559,22 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>53</v>
+    <row r="16" spans="1:26" ht="108" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>48</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>54</v>
+      <c r="B16" s="28" t="s">
+        <v>49</v>
       </c>
-      <c r="C16" s="26" t="s">
-        <v>55</v>
+      <c r="C16" s="39" t="s">
+        <v>75</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>56</v>
+      <c r="D16" s="30" t="s">
+        <v>74</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="10"/>
@@ -1559,21 +1596,21 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" ht="108" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>57</v>
+      <c r="A17" s="25" t="s">
+        <v>50</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>58</v>
+      <c r="B17" s="40" t="s">
+        <v>51</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>59</v>
+      <c r="C17" s="35" t="s">
+        <v>52</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>60</v>
+      <c r="D17" s="25" t="s">
+        <v>53</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1595,21 +1632,21 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" ht="108" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>61</v>
+      <c r="A18" s="27" t="s">
+        <v>54</v>
       </c>
-      <c r="B18" s="21" t="s">
-        <v>62</v>
+      <c r="B18" s="28" t="s">
+        <v>55</v>
       </c>
-      <c r="C18" s="26" t="s">
-        <v>63</v>
+      <c r="C18" s="32" t="s">
+        <v>81</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>64</v>
+      <c r="D18" s="33" t="s">
+        <v>56</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1631,21 +1668,21 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>61</v>
+      <c r="A19" s="25" t="s">
+        <v>54</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>65</v>
+      <c r="B19" s="34" t="s">
+        <v>57</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>66</v>
+      <c r="C19" s="35" t="s">
+        <v>58</v>
       </c>
-      <c r="D19" s="35" t="s">
-        <v>67</v>
+      <c r="D19" s="41" t="s">
+        <v>59</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1667,21 +1704,21 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26" ht="94.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>68</v>
+      <c r="A20" s="22" t="s">
+        <v>60</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>69</v>
+      <c r="B20" s="28" t="s">
+        <v>61</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>70</v>
+      <c r="C20" s="29" t="s">
+        <v>62</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>71</v>
+      <c r="D20" s="30" t="s">
+        <v>63</v>
       </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1703,21 +1740,21 @@
       <c r="Z20" s="9"/>
     </row>
     <row r="21" spans="1:26" ht="99" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>72</v>
+      <c r="A21" s="25" t="s">
+        <v>64</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>73</v>
+      <c r="B21" s="34" t="s">
+        <v>65</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>74</v>
+      <c r="C21" s="35" t="s">
+        <v>66</v>
       </c>
-      <c r="D21" s="35" t="s">
-        <v>75</v>
+      <c r="D21" s="41" t="s">
+        <v>67</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1739,21 +1776,21 @@
       <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="1:26" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
-        <v>72</v>
+      <c r="A22" s="27" t="s">
+        <v>64</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>76</v>
+      <c r="B22" s="28" t="s">
+        <v>68</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>77</v>
+      <c r="C22" s="32" t="s">
+        <v>82</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>78</v>
+      <c r="D22" s="33" t="s">
+        <v>69</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1775,21 +1812,21 @@
       <c r="Z22" s="9"/>
     </row>
     <row r="23" spans="1:26" ht="121.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>79</v>
+      <c r="A23" s="42" t="s">
+        <v>70</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>80</v>
+      <c r="B23" s="43" t="s">
+        <v>71</v>
       </c>
-      <c r="C23" s="38" t="s">
-        <v>81</v>
+      <c r="C23" s="44" t="s">
+        <v>72</v>
       </c>
-      <c r="D23" s="27" t="s">
-        <v>82</v>
+      <c r="D23" s="33" t="s">
+        <v>73</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>

--- a/Mitgliedervereine Adressen.xlsx
+++ b/Mitgliedervereine Adressen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hikar\Dropbox\Kraftdreikampfverband Schweiz\Vereine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4C3C35-309A-4377-BD29-0FF881A2E53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D5D315-6D08-4824-B08C-95EFB1C417D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="2625" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mitgliedervereine" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>Mitgliedervereine 
  Associations membres</t>
@@ -460,12 +460,29 @@
 www.klubdersportfreunde.ch/powerliftingverein</t>
     </r>
   </si>
+  <si>
+    <t>Powerlifting Nordostschweiz</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>powerlifting.nordostschweiz@gmail.com</t>
+  </si>
+  <si>
+    <t>Powerlifting Nordostschweiz
+Hafenstrasse 50c
+8280 Kreuzlingen
+Sandro Gassner
+ +41  76 360 81 55
+https://www.instagram.com/powerlifting_nordostschweiz/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +550,13 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -560,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -613,11 +637,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -741,11 +776,17 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,8 +1057,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1815,7 +1856,7 @@
       <c r="A23" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C23" s="44" t="s">
@@ -1847,14 +1888,22 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+    <row r="24" spans="1:26" ht="108" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
